--- a/data/proc/scrap_lists/2010_2014/09274.xlsx
+++ b/data/proc/scrap_lists/2010_2014/09274.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id_matched</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id_matched</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,14 @@
           <t>0927420100018</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0927420100018</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,10 +531,14 @@
           <t>0927420100032</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0927420100032</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,10 +566,14 @@
           <t>0927420100053</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0927420100053</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,10 +601,14 @@
           <t>0927420100087</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0927420100087</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,10 +636,14 @@
           <t>0927420100096</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0927420100096</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,10 +671,14 @@
           <t>0927420100101</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0927420100101</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,10 +706,14 @@
           <t>0927420100122</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0927420100122</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,10 +741,14 @@
           <t>0927420100129</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0927420100129</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -744,10 +776,14 @@
           <t>0927420100164</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0927420100164</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,10 +811,14 @@
           <t>0927420100165</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0927420100165</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -806,10 +846,14 @@
           <t>0927420100173</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0927420100173</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -837,10 +881,14 @@
           <t>0927420100185</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0927420100185</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,10 +916,14 @@
           <t>0927420100207</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0927420100207</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -899,10 +951,14 @@
           <t>0927420100223</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0927420100223</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -930,10 +986,14 @@
           <t>0927420100249</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0927420100249</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -961,10 +1021,14 @@
           <t>0927420100255</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0927420100255</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -992,10 +1056,14 @@
           <t>0927420100267</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0927420100267</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1023,10 +1091,14 @@
           <t>0927420100306</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0927420100306</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1054,10 +1126,14 @@
           <t>0927420100331</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0927420100331</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1085,10 +1161,14 @@
           <t>0927420100358</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0927420100358</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1116,10 +1196,14 @@
           <t>0927420100385</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0927420100385</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1147,10 +1231,14 @@
           <t>0927420100386</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0927420100386</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1178,10 +1266,14 @@
           <t>0927420100387</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0927420100387</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1209,10 +1301,14 @@
           <t>0927420100411</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0927420100411</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1240,10 +1336,14 @@
           <t>0927420100434</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0927420100434</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1271,10 +1371,14 @@
           <t>0927420100444</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0927420100444</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1302,10 +1406,14 @@
           <t>0927420100463</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0927420100463</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1333,10 +1441,14 @@
           <t>0927420100466</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0927420100466</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1364,10 +1476,14 @@
           <t>0927420100467</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0927420100467</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1395,10 +1511,14 @@
           <t>0927420100475</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0927420100475</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1426,10 +1546,14 @@
           <t>0927420100478</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0927420100478</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1457,10 +1581,14 @@
           <t>0927420100480</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0927420100480</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1488,10 +1616,14 @@
           <t>0927420100529</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0927420100529</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1519,10 +1651,14 @@
           <t>0927420100530</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0927420100530</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1550,10 +1686,14 @@
           <t>0927420100562</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0927420100562</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1581,10 +1721,14 @@
           <t>0927420100570</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0927420100570</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1612,10 +1756,14 @@
           <t>0927420100581</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0927420100581</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1643,10 +1791,14 @@
           <t>0927420100601</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0927420100601</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1674,10 +1826,14 @@
           <t>0927420100623</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0927420100623</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1705,10 +1861,14 @@
           <t>0927420100624</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0927420100624</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1736,10 +1896,14 @@
           <t>0927420100638</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0927420100638</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1767,10 +1931,14 @@
           <t>0927420100639</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0927420100639</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1798,10 +1966,14 @@
           <t>0927420100640</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0927420100640</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1829,10 +2001,14 @@
           <t>0927420100651</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0927420100651</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1860,10 +2036,14 @@
           <t>0927420100655</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0927420100655</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1891,10 +2071,14 @@
           <t>0927420100687</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0927420100687</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1922,10 +2106,14 @@
           <t>0927420100714</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0927420100714</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1953,10 +2141,14 @@
           <t>0927420100726</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0927420100726</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1984,10 +2176,14 @@
           <t>0927420100737</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0927420100737</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2015,10 +2211,14 @@
           <t>0927420100752</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0927420100752</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2046,10 +2246,14 @@
           <t>0927420100754</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0927420100754</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2077,10 +2281,14 @@
           <t>0927420100757</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0927420100757</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2108,10 +2316,14 @@
           <t>0927420100776</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0927420100776</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2139,10 +2351,14 @@
           <t>0927420100787</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0927420100787</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2170,10 +2386,14 @@
           <t>0927420100826</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0927420100826</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2201,10 +2421,14 @@
           <t>0927420100840</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0927420100840</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2232,10 +2456,14 @@
           <t>0927420100870</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0927420100870</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2263,10 +2491,14 @@
           <t>0927420100871</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0927420100871</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2294,10 +2526,14 @@
           <t>0927420100875</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0927420100875</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2325,10 +2561,14 @@
           <t>0927420100879</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0927420100879</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2356,10 +2596,14 @@
           <t>0927420100882</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0927420100882</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2387,10 +2631,14 @@
           <t>0927420100936</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0927420100936</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2418,10 +2666,14 @@
           <t>0927420100986</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0927420100986</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2449,10 +2701,14 @@
           <t>0927420100987</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0927420100987</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2480,10 +2736,14 @@
           <t>0927420100993</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0927420100993</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2511,10 +2771,14 @@
           <t>0927420101016</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0927420101016</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2542,10 +2806,14 @@
           <t>0927420101029</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0927420101029</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2573,10 +2841,14 @@
           <t>0927420101041</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0927420101041</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2604,10 +2876,14 @@
           <t>0927420101049</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0927420101049</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2635,10 +2911,14 @@
           <t>0927420101098</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0927420101098</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2666,10 +2946,14 @@
           <t>0927420101099</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0927420101099</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2697,10 +2981,14 @@
           <t>0927420101268</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0927420101268</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2728,10 +3016,14 @@
           <t>0927420101269</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0927420101269</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2759,10 +3051,14 @@
           <t>0927420101277</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0927420101277</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2790,10 +3086,14 @@
           <t>0927420101306</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0927420101306</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2821,10 +3121,14 @@
           <t>0927420101308</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0927420101308</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2852,10 +3156,14 @@
           <t>0927420101311</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0927420101311</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2883,10 +3191,14 @@
           <t>0927420101339</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0927420101339</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2914,10 +3226,14 @@
           <t>0927420101355</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0927420101355</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2945,10 +3261,14 @@
           <t>0927420101369</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0927420101369</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2976,10 +3296,14 @@
           <t>0927420101383</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0927420101383</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3007,10 +3331,14 @@
           <t>0927420101417</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0927420101417</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3038,10 +3366,14 @@
           <t>0927420101418</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0927420101418</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3069,10 +3401,14 @@
           <t>0927420101421</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0927420101421</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3100,10 +3436,14 @@
           <t>0927420101430</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0927420101430</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3131,10 +3471,14 @@
           <t>0927420101452</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0927420101452</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3162,10 +3506,14 @@
           <t>0927420101469</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0927420101469</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3193,10 +3541,14 @@
           <t>0927420101471</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0927420101471</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3224,10 +3576,14 @@
           <t>0927420101493</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0927420101493</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3255,10 +3611,14 @@
           <t>0927420101510</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0927420101510</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3286,10 +3646,14 @@
           <t>0927420101512</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0927420101512</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3317,10 +3681,14 @@
           <t>0927420101518</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0927420101518</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3348,10 +3716,14 @@
           <t>0927420101519</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0927420101519</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3379,10 +3751,14 @@
           <t>0927420101542</t>
         </is>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0927420101542</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3410,10 +3786,14 @@
           <t>0927420101543</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0927420101543</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3441,10 +3821,14 @@
           <t>0927420101545</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0927420101545</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3472,10 +3856,14 @@
           <t>0927420101546</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0927420101546</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3503,10 +3891,14 @@
           <t>0927420101580</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0927420101580</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3534,10 +3926,14 @@
           <t>0927420101592</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0927420101592</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3565,10 +3961,14 @@
           <t>0927420101593</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0927420101593</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3596,10 +3996,14 @@
           <t>0927420101598</t>
         </is>
       </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0927420101598</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3627,10 +4031,14 @@
           <t>0927420101636</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0927420101636</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3658,10 +4066,14 @@
           <t>0927420101637</t>
         </is>
       </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0927420101637</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3689,10 +4101,14 @@
           <t>0927420101642</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0927420101642</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3720,10 +4136,14 @@
           <t>0927420101646</t>
         </is>
       </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0927420101646</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3751,10 +4171,14 @@
           <t>0927420101653</t>
         </is>
       </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0927420101653</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3782,10 +4206,14 @@
           <t>0927420101654</t>
         </is>
       </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0927420101654</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3813,10 +4241,14 @@
           <t>0927420101655</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0927420101655</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3844,10 +4276,14 @@
           <t>0927420101656</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0927420101656</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3875,10 +4311,14 @@
           <t>0927420101658</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0927420101658</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3906,10 +4346,14 @@
           <t>0927420101665</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0927420101665</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3937,10 +4381,14 @@
           <t>0927420101692</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0927420101692</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3968,10 +4416,14 @@
           <t>0927420101697</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0927420101697</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3999,10 +4451,14 @@
           <t>0927420101719</t>
         </is>
       </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0927420101719</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4030,10 +4486,14 @@
           <t>0927420101720</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0927420101720</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4061,10 +4521,14 @@
           <t>0927420101722</t>
         </is>
       </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0927420101722</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4092,10 +4556,14 @@
           <t>0927420101723</t>
         </is>
       </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0927420101723</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4123,10 +4591,14 @@
           <t>0927420101785</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0927420101785</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4154,10 +4626,14 @@
           <t>0927420101819</t>
         </is>
       </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0927420101819</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4185,10 +4661,14 @@
           <t>0927420101866</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0927420101866</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4216,10 +4696,14 @@
           <t>0927420101879</t>
         </is>
       </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0927420101879</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4247,10 +4731,14 @@
           <t>0927420101880</t>
         </is>
       </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0927420101880</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4278,10 +4766,14 @@
           <t>0927420101881</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0927420101881</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4309,10 +4801,14 @@
           <t>0927420101892</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0927420101892</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4340,10 +4836,14 @@
           <t>0927420101916</t>
         </is>
       </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0927420101916</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4371,10 +4871,14 @@
           <t>0927420101920</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0927420101920</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4402,10 +4906,14 @@
           <t>0927420101925</t>
         </is>
       </c>
-      <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0927420101925</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4433,10 +4941,14 @@
           <t>0927420101939</t>
         </is>
       </c>
-      <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0927420101939</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4464,10 +4976,14 @@
           <t>0927420101957</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0927420101957</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4495,10 +5011,14 @@
           <t>0927420101960</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0927420101960</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4526,10 +5046,14 @@
           <t>0927420101965</t>
         </is>
       </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0927420101965</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4557,10 +5081,14 @@
           <t>0927420101967</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0927420101967</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4588,10 +5116,14 @@
           <t>0927420101979</t>
         </is>
       </c>
-      <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0927420101979</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4619,10 +5151,14 @@
           <t>0927420101980</t>
         </is>
       </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0927420101980</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4650,10 +5186,14 @@
           <t>0927420101997</t>
         </is>
       </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0927420101997</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4681,10 +5221,14 @@
           <t>0927420102029</t>
         </is>
       </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0927420102029</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4712,10 +5256,14 @@
           <t>0927420102039</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0927420102039</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4743,10 +5291,14 @@
           <t>0927420102048</t>
         </is>
       </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0927420102048</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4774,10 +5326,14 @@
           <t>0927420102057</t>
         </is>
       </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0927420102057</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4805,10 +5361,14 @@
           <t>0927420102100</t>
         </is>
       </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0927420102100</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4836,10 +5396,14 @@
           <t>0927420102113</t>
         </is>
       </c>
-      <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0927420102113</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4867,10 +5431,14 @@
           <t>0927420102153</t>
         </is>
       </c>
-      <c r="F143" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0927420102153</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4898,10 +5466,14 @@
           <t>0927420102155</t>
         </is>
       </c>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0927420102155</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4929,10 +5501,14 @@
           <t>0927420102190</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0927420102190</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4960,10 +5536,14 @@
           <t>0927420102195</t>
         </is>
       </c>
-      <c r="F146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0927420102195</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4991,10 +5571,14 @@
           <t>0927420102205</t>
         </is>
       </c>
-      <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0927420102205</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5022,10 +5606,14 @@
           <t>0927420102222</t>
         </is>
       </c>
-      <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0927420102222</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5053,10 +5641,14 @@
           <t>0927420102265</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0927420102265</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5084,10 +5676,14 @@
           <t>0927420102268</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0927420102268</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5115,10 +5711,14 @@
           <t>0927420102295</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0927420102295</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5146,10 +5746,14 @@
           <t>0927420110011</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0927420110011</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5177,10 +5781,14 @@
           <t>0927420110020</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0927420110020</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5208,10 +5816,14 @@
           <t>0927420110069</t>
         </is>
       </c>
-      <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0927420110069</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5239,10 +5851,14 @@
           <t>0927420110070</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0927420110070</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5270,10 +5886,14 @@
           <t>0927420110086</t>
         </is>
       </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0927420110086</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5301,10 +5921,14 @@
           <t>0927420110120</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0927420110120</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5332,10 +5956,14 @@
           <t>0927420110123</t>
         </is>
       </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0927420110123</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5363,10 +5991,14 @@
           <t>0927420110137</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0927420110137</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5394,10 +6026,14 @@
           <t>0927420110170</t>
         </is>
       </c>
-      <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0927420110170</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5425,10 +6061,14 @@
           <t>0927420110213</t>
         </is>
       </c>
-      <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0927420110213</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5456,10 +6096,14 @@
           <t>0927420110255</t>
         </is>
       </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0927420110255</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5487,10 +6131,14 @@
           <t>0927420110286</t>
         </is>
       </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0927420110286</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5518,10 +6166,14 @@
           <t>0927420110299</t>
         </is>
       </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0927420110299</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5549,10 +6201,14 @@
           <t>0927420110300</t>
         </is>
       </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0927420110300</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5580,10 +6236,14 @@
           <t>0927420110306</t>
         </is>
       </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0927420110306</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5611,10 +6271,14 @@
           <t>0927420110322</t>
         </is>
       </c>
-      <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0927420110322</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5642,10 +6306,14 @@
           <t>0927420110324</t>
         </is>
       </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0927420110324</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5673,10 +6341,14 @@
           <t>0927420110325</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0927420110325</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5704,10 +6376,14 @@
           <t>0927420110326</t>
         </is>
       </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0927420110326</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5735,10 +6411,14 @@
           <t>0927420110333</t>
         </is>
       </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0927420110333</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5766,10 +6446,14 @@
           <t>0927420110337</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0927420110337</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5797,10 +6481,14 @@
           <t>0927420110346</t>
         </is>
       </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0927420110346</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5828,10 +6516,14 @@
           <t>0927420110354</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0927420110354</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5859,10 +6551,14 @@
           <t>0927420110361</t>
         </is>
       </c>
-      <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0927420110361</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5890,10 +6586,14 @@
           <t>0927420110404</t>
         </is>
       </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0927420110404</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5921,10 +6621,14 @@
           <t>0927420110455</t>
         </is>
       </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0927420110455</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5952,10 +6656,14 @@
           <t>0927420110467</t>
         </is>
       </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0927420110467</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5983,10 +6691,14 @@
           <t>0927420110471</t>
         </is>
       </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0927420110471</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6014,10 +6726,14 @@
           <t>0927420110477</t>
         </is>
       </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0927420110477</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6045,10 +6761,14 @@
           <t>0927420110495</t>
         </is>
       </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0927420110495</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6076,10 +6796,14 @@
           <t>0927420110500</t>
         </is>
       </c>
-      <c r="F182" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0927420110500</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6107,10 +6831,14 @@
           <t>0927420110514</t>
         </is>
       </c>
-      <c r="F183" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0927420110514</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6138,10 +6866,14 @@
           <t>0927420110570</t>
         </is>
       </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0927420110570</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6169,10 +6901,14 @@
           <t>0927420110582</t>
         </is>
       </c>
-      <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0927420110582</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6200,10 +6936,14 @@
           <t>0927420110629</t>
         </is>
       </c>
-      <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0927420110629</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6231,10 +6971,14 @@
           <t>0927420110630</t>
         </is>
       </c>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0927420110630</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6262,10 +7006,14 @@
           <t>0927420110643</t>
         </is>
       </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0927420110643</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6293,10 +7041,14 @@
           <t>0927420110649</t>
         </is>
       </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0927420110649</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6324,10 +7076,14 @@
           <t>0927420110702</t>
         </is>
       </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0927420110702</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6355,10 +7111,14 @@
           <t>0927420110718</t>
         </is>
       </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0927420110718</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6386,10 +7146,14 @@
           <t>0927420110728</t>
         </is>
       </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0927420110728</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6417,10 +7181,14 @@
           <t>0927420110729</t>
         </is>
       </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0927420110729</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6448,10 +7216,14 @@
           <t>0927420110740</t>
         </is>
       </c>
-      <c r="F194" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0927420110740</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6479,10 +7251,14 @@
           <t>0927420110742</t>
         </is>
       </c>
-      <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0927420110742</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6510,10 +7286,14 @@
           <t>0927420110788</t>
         </is>
       </c>
-      <c r="F196" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0927420110788</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6541,10 +7321,14 @@
           <t>0927420110790</t>
         </is>
       </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0927420110790</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6572,10 +7356,14 @@
           <t>0927420110806</t>
         </is>
       </c>
-      <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0927420110806</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6603,10 +7391,14 @@
           <t>0927420110808</t>
         </is>
       </c>
-      <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0927420110808</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6634,10 +7426,14 @@
           <t>0927420110815</t>
         </is>
       </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0927420110815</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6665,10 +7461,14 @@
           <t>0927420110825</t>
         </is>
       </c>
-      <c r="F201" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0927420110825</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6696,10 +7496,14 @@
           <t>0927420110840</t>
         </is>
       </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0927420110840</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6727,10 +7531,14 @@
           <t>0927420110844</t>
         </is>
       </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0927420110844</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6758,10 +7566,14 @@
           <t>0927420110845</t>
         </is>
       </c>
-      <c r="F204" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0927420110845</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6789,10 +7601,14 @@
           <t>0927420110848</t>
         </is>
       </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0927420110848</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6820,10 +7636,14 @@
           <t>0927420110871</t>
         </is>
       </c>
-      <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0927420110871</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6851,10 +7671,14 @@
           <t>0927420110909</t>
         </is>
       </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0927420110909</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6882,10 +7706,14 @@
           <t>0927420110922</t>
         </is>
       </c>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0927420110922</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6913,10 +7741,14 @@
           <t>0927420110924</t>
         </is>
       </c>
-      <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0927420110924</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6944,10 +7776,14 @@
           <t>0927420110929</t>
         </is>
       </c>
-      <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0927420110929</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6975,10 +7811,14 @@
           <t>0927420110933</t>
         </is>
       </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0927420110933</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7006,10 +7846,14 @@
           <t>0927420110936</t>
         </is>
       </c>
-      <c r="F212" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0927420110936</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7037,10 +7881,14 @@
           <t>0927420110937</t>
         </is>
       </c>
-      <c r="F213" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0927420110937</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7068,10 +7916,14 @@
           <t>0927420110960</t>
         </is>
       </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0927420110960</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7099,10 +7951,14 @@
           <t>0927420110988</t>
         </is>
       </c>
-      <c r="F215" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0927420110988</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7130,10 +7986,14 @@
           <t>0927420111008</t>
         </is>
       </c>
-      <c r="F216" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0927420111008</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7161,10 +8021,14 @@
           <t>0927420111023</t>
         </is>
       </c>
-      <c r="F217" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0927420111023</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7192,10 +8056,14 @@
           <t>0927420111024</t>
         </is>
       </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0927420111024</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7223,10 +8091,14 @@
           <t>0927420111032</t>
         </is>
       </c>
-      <c r="F219" t="n">
-        <v>0</v>
-      </c>
-      <c r="G219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0927420111032</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7254,10 +8126,14 @@
           <t>0927420111045</t>
         </is>
       </c>
-      <c r="F220" t="n">
-        <v>0</v>
-      </c>
-      <c r="G220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0927420111045</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7285,10 +8161,14 @@
           <t>0927420111055</t>
         </is>
       </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0927420111055</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7316,10 +8196,14 @@
           <t>0927420111064</t>
         </is>
       </c>
-      <c r="F222" t="n">
-        <v>0</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0927420111064</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7347,10 +8231,14 @@
           <t>0927420111066</t>
         </is>
       </c>
-      <c r="F223" t="n">
-        <v>0</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0927420111066</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7378,10 +8266,14 @@
           <t>0927420111115</t>
         </is>
       </c>
-      <c r="F224" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0927420111115</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7409,10 +8301,14 @@
           <t>0927420111208</t>
         </is>
       </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0927420111208</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7440,10 +8336,14 @@
           <t>0927420111210</t>
         </is>
       </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0927420111210</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7471,10 +8371,14 @@
           <t>0927420111227</t>
         </is>
       </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0927420111227</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7502,10 +8406,14 @@
           <t>0927420111242</t>
         </is>
       </c>
-      <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0927420111242</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7533,10 +8441,14 @@
           <t>0927420111365</t>
         </is>
       </c>
-      <c r="F229" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0927420111365</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7564,10 +8476,14 @@
           <t>0927420111397</t>
         </is>
       </c>
-      <c r="F230" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0927420111397</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7595,10 +8511,14 @@
           <t>0927420111457</t>
         </is>
       </c>
-      <c r="F231" t="n">
-        <v>0</v>
-      </c>
-      <c r="G231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0927420111457</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7626,10 +8546,14 @@
           <t>0927420111519</t>
         </is>
       </c>
-      <c r="F232" t="n">
-        <v>0</v>
-      </c>
-      <c r="G232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0927420111519</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7657,10 +8581,14 @@
           <t>0927420111650</t>
         </is>
       </c>
-      <c r="F233" t="n">
-        <v>0</v>
-      </c>
-      <c r="G233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0927420111650</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7688,10 +8616,14 @@
           <t>0927420111750</t>
         </is>
       </c>
-      <c r="F234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0927420111750</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7719,10 +8651,14 @@
           <t>0927420111753</t>
         </is>
       </c>
-      <c r="F235" t="n">
-        <v>0</v>
-      </c>
-      <c r="G235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0927420111753</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7750,10 +8686,14 @@
           <t>0927420111754</t>
         </is>
       </c>
-      <c r="F236" t="n">
-        <v>0</v>
-      </c>
-      <c r="G236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0927420111754</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7781,10 +8721,14 @@
           <t>0927420111755</t>
         </is>
       </c>
-      <c r="F237" t="n">
-        <v>0</v>
-      </c>
-      <c r="G237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0927420111755</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7812,10 +8756,14 @@
           <t>0927420111773</t>
         </is>
       </c>
-      <c r="F238" t="n">
-        <v>0</v>
-      </c>
-      <c r="G238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0927420111773</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7843,10 +8791,14 @@
           <t>0927420111774</t>
         </is>
       </c>
-      <c r="F239" t="n">
-        <v>0</v>
-      </c>
-      <c r="G239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0927420111774</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7874,10 +8826,14 @@
           <t>0927420111775</t>
         </is>
       </c>
-      <c r="F240" t="n">
-        <v>0</v>
-      </c>
-      <c r="G240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0927420111775</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7905,10 +8861,14 @@
           <t>0927420111776</t>
         </is>
       </c>
-      <c r="F241" t="n">
-        <v>0</v>
-      </c>
-      <c r="G241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0927420111776</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7936,10 +8896,14 @@
           <t>0927420111780</t>
         </is>
       </c>
-      <c r="F242" t="n">
-        <v>0</v>
-      </c>
-      <c r="G242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0927420111780</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7967,10 +8931,14 @@
           <t>0927420111785</t>
         </is>
       </c>
-      <c r="F243" t="n">
-        <v>0</v>
-      </c>
-      <c r="G243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0927420111785</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7998,10 +8966,14 @@
           <t>0927420111795</t>
         </is>
       </c>
-      <c r="F244" t="n">
-        <v>0</v>
-      </c>
-      <c r="G244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0927420111795</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8029,10 +9001,14 @@
           <t>0927420111799</t>
         </is>
       </c>
-      <c r="F245" t="n">
-        <v>0</v>
-      </c>
-      <c r="G245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0927420111799</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8060,10 +9036,14 @@
           <t>0927420111913</t>
         </is>
       </c>
-      <c r="F246" t="n">
-        <v>0</v>
-      </c>
-      <c r="G246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0927420111913</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8091,10 +9071,14 @@
           <t>0927420111934</t>
         </is>
       </c>
-      <c r="F247" t="n">
-        <v>0</v>
-      </c>
-      <c r="G247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>0927420111934</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8122,10 +9106,14 @@
           <t>0927420112004</t>
         </is>
       </c>
-      <c r="F248" t="n">
-        <v>0</v>
-      </c>
-      <c r="G248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>0927420112004</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8153,10 +9141,14 @@
           <t>0927420112065</t>
         </is>
       </c>
-      <c r="F249" t="n">
-        <v>0</v>
-      </c>
-      <c r="G249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0927420112065</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8184,10 +9176,14 @@
           <t>0927420112087</t>
         </is>
       </c>
-      <c r="F250" t="n">
-        <v>0</v>
-      </c>
-      <c r="G250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0927420112087</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8215,10 +9211,14 @@
           <t>0927420112100</t>
         </is>
       </c>
-      <c r="F251" t="n">
-        <v>0</v>
-      </c>
-      <c r="G251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0927420112100</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8246,10 +9246,14 @@
           <t>0927420112120</t>
         </is>
       </c>
-      <c r="F252" t="n">
-        <v>0</v>
-      </c>
-      <c r="G252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0927420112120</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8277,10 +9281,14 @@
           <t>0927420112161</t>
         </is>
       </c>
-      <c r="F253" t="n">
-        <v>0</v>
-      </c>
-      <c r="G253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0927420112161</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8308,10 +9316,14 @@
           <t>0927420112266</t>
         </is>
       </c>
-      <c r="F254" t="n">
-        <v>0</v>
-      </c>
-      <c r="G254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0927420112266</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8339,10 +9351,14 @@
           <t>0927420112276</t>
         </is>
       </c>
-      <c r="F255" t="n">
-        <v>0</v>
-      </c>
-      <c r="G255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0927420112276</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8370,10 +9386,14 @@
           <t>0927420112312</t>
         </is>
       </c>
-      <c r="F256" t="n">
-        <v>0</v>
-      </c>
-      <c r="G256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0927420112312</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8401,10 +9421,14 @@
           <t>0927420112398</t>
         </is>
       </c>
-      <c r="F257" t="n">
-        <v>0</v>
-      </c>
-      <c r="G257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0927420112398</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8432,10 +9456,14 @@
           <t>0927420112582</t>
         </is>
       </c>
-      <c r="F258" t="n">
-        <v>0</v>
-      </c>
-      <c r="G258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0927420112582</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8463,10 +9491,14 @@
           <t>0927420112589</t>
         </is>
       </c>
-      <c r="F259" t="n">
-        <v>0</v>
-      </c>
-      <c r="G259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0927420112589</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8494,10 +9526,14 @@
           <t>0927420112625</t>
         </is>
       </c>
-      <c r="F260" t="n">
-        <v>0</v>
-      </c>
-      <c r="G260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0927420112625</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8525,10 +9561,14 @@
           <t>0927420112638</t>
         </is>
       </c>
-      <c r="F261" t="n">
-        <v>0</v>
-      </c>
-      <c r="G261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>0927420112638</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8556,10 +9596,14 @@
           <t>0927420112639</t>
         </is>
       </c>
-      <c r="F262" t="n">
-        <v>0</v>
-      </c>
-      <c r="G262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>0927420112639</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8587,10 +9631,14 @@
           <t>0927420112642</t>
         </is>
       </c>
-      <c r="F263" t="n">
-        <v>0</v>
-      </c>
-      <c r="G263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>0927420112642</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8618,10 +9666,14 @@
           <t>0927420112647</t>
         </is>
       </c>
-      <c r="F264" t="n">
-        <v>0</v>
-      </c>
-      <c r="G264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>0927420112647</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8649,10 +9701,14 @@
           <t>0927420112648</t>
         </is>
       </c>
-      <c r="F265" t="n">
-        <v>0</v>
-      </c>
-      <c r="G265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>0927420112648</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8680,10 +9736,14 @@
           <t>0927420112650</t>
         </is>
       </c>
-      <c r="F266" t="n">
-        <v>0</v>
-      </c>
-      <c r="G266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>0927420112650</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8711,10 +9771,14 @@
           <t>0927420112651</t>
         </is>
       </c>
-      <c r="F267" t="n">
-        <v>0</v>
-      </c>
-      <c r="G267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>0927420112651</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8742,10 +9806,14 @@
           <t>0927420112652</t>
         </is>
       </c>
-      <c r="F268" t="n">
-        <v>0</v>
-      </c>
-      <c r="G268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>0927420112652</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8773,10 +9841,14 @@
           <t>0927420112655</t>
         </is>
       </c>
-      <c r="F269" t="n">
-        <v>0</v>
-      </c>
-      <c r="G269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>0927420112655</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8804,10 +9876,14 @@
           <t>0927420112656</t>
         </is>
       </c>
-      <c r="F270" t="n">
-        <v>0</v>
-      </c>
-      <c r="G270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>0927420112656</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8835,10 +9911,14 @@
           <t>0927420120027</t>
         </is>
       </c>
-      <c r="F271" t="n">
-        <v>0</v>
-      </c>
-      <c r="G271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>0927420120027</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8866,10 +9946,14 @@
           <t>0927420120042</t>
         </is>
       </c>
-      <c r="F272" t="n">
-        <v>0</v>
-      </c>
-      <c r="G272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>0927420120042</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8897,10 +9981,14 @@
           <t>0927420120049</t>
         </is>
       </c>
-      <c r="F273" t="n">
-        <v>0</v>
-      </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>0927420120049</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8928,10 +10016,14 @@
           <t>0927420120095</t>
         </is>
       </c>
-      <c r="F274" t="n">
-        <v>0</v>
-      </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>0927420120095</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8959,10 +10051,14 @@
           <t>0927420120098</t>
         </is>
       </c>
-      <c r="F275" t="n">
-        <v>0</v>
-      </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>0927420120098</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8990,10 +10086,14 @@
           <t>0927420120101</t>
         </is>
       </c>
-      <c r="F276" t="n">
-        <v>0</v>
-      </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>0927420120101</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9021,10 +10121,14 @@
           <t>0927420120104</t>
         </is>
       </c>
-      <c r="F277" t="n">
-        <v>0</v>
-      </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>0927420120104</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9052,10 +10156,14 @@
           <t>0927420120110</t>
         </is>
       </c>
-      <c r="F278" t="n">
-        <v>0</v>
-      </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>0927420120110</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9083,10 +10191,14 @@
           <t>0927420130032</t>
         </is>
       </c>
-      <c r="F279" t="n">
-        <v>0</v>
-      </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>0927420130032</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9114,10 +10226,14 @@
           <t>0927420130175</t>
         </is>
       </c>
-      <c r="F280" t="n">
-        <v>0</v>
-      </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>0927420130175</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9145,10 +10261,14 @@
           <t>0927420130242</t>
         </is>
       </c>
-      <c r="F281" t="n">
-        <v>0</v>
-      </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>0927420130242</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
